--- a/DataCW3M/SkillAssessment/Hindcast skill - Calibration v Validation.xlsx
+++ b/DataCW3M/SkillAssessment/Hindcast skill - Calibration v Validation.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD7BB86-703C-45DF-A0D4-5DDBC8F53B09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FD41CD-0D0B-4768-A287-0856D66316ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{E7D8029B-26A1-4D64-8933-D1A21037D80D}"/>
+    <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{E7D8029B-26A1-4D64-8933-D1A21037D80D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="McKenzie" sheetId="1" r:id="rId1"/>
+    <sheet name="NSantiam" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="150">
   <si>
     <t>CW3M ver. 326 Hindcast Skill for Flows and Stream Temperatures in 2019 and 2020</t>
   </si>
@@ -319,6 +320,171 @@
   </si>
   <si>
     <t>0.96 VG</t>
+  </si>
+  <si>
+    <t>Greens Br Nr Jefferson</t>
+  </si>
+  <si>
+    <t>ver. 409 2010-18</t>
+  </si>
+  <si>
+    <t>-3.3% VG</t>
+  </si>
+  <si>
+    <t>0.84 VG</t>
+  </si>
+  <si>
+    <t>-9.1% G</t>
+  </si>
+  <si>
+    <t>0.40 VG</t>
+  </si>
+  <si>
+    <t>7/5/21 CW3M ver. 409 for 2019-20</t>
+  </si>
+  <si>
+    <t>North Santiam Basin</t>
+  </si>
+  <si>
+    <t>At Mehama</t>
+  </si>
+  <si>
+    <t>-11.8% S</t>
+  </si>
+  <si>
+    <t>-11.1% S</t>
+  </si>
+  <si>
+    <t>Little NSantiam nr Mehama</t>
+  </si>
+  <si>
+    <t>0.87 BG</t>
+  </si>
+  <si>
+    <t>3.5% VG</t>
+  </si>
+  <si>
+    <t>2.2% VG</t>
+  </si>
+  <si>
+    <t>0.38 VG</t>
+  </si>
+  <si>
+    <t>0.78 G</t>
+  </si>
+  <si>
+    <t>-0.1% VG</t>
+  </si>
+  <si>
+    <t>0.47 VG</t>
+  </si>
+  <si>
+    <t>0.69 S</t>
+  </si>
+  <si>
+    <t>-1.9% VG</t>
+  </si>
+  <si>
+    <t>0.55 G</t>
+  </si>
+  <si>
+    <t>0.70 S</t>
+  </si>
+  <si>
+    <t>Blowout Creek Near Detroit</t>
+  </si>
+  <si>
+    <t>0.35 VG</t>
+  </si>
+  <si>
+    <t>Breitenbush R Abv French Cr</t>
+  </si>
+  <si>
+    <t>ver. 409  2010-18</t>
+  </si>
+  <si>
+    <t>5.4% G</t>
+  </si>
+  <si>
+    <t>0.79 G</t>
+  </si>
+  <si>
+    <t>4.8% VG</t>
+  </si>
+  <si>
+    <t>0.46 VG</t>
+  </si>
+  <si>
+    <t>Below Boulder Creek</t>
+  </si>
+  <si>
+    <t>0.2% VG</t>
+  </si>
+  <si>
+    <t>-3.1% VG</t>
+  </si>
+  <si>
+    <t>22.0% NS</t>
+  </si>
+  <si>
+    <t>0.71 G</t>
+  </si>
+  <si>
+    <t>20.0% NS</t>
+  </si>
+  <si>
+    <t>0.49 VG</t>
+  </si>
+  <si>
+    <t>5.5% G</t>
+  </si>
+  <si>
+    <t>0.26 VG</t>
+  </si>
+  <si>
+    <t>n.a.</t>
+  </si>
+  <si>
+    <t>ver. 409 2010-15</t>
+  </si>
+  <si>
+    <t>NSantiam at Niagara</t>
+  </si>
+  <si>
+    <t>4.3% VG</t>
+  </si>
+  <si>
+    <t>2.0% VG</t>
+  </si>
+  <si>
+    <t>-1.0% VG</t>
+  </si>
+  <si>
+    <t>0.23 VG</t>
+  </si>
+  <si>
+    <t>-4.2% VG</t>
+  </si>
+  <si>
+    <t>0.25 VG</t>
+  </si>
+  <si>
+    <t>-9.9% G</t>
+  </si>
+  <si>
+    <t>0.30 VG</t>
+  </si>
+  <si>
+    <t>0.83 VG</t>
+  </si>
+  <si>
+    <t>4.5% VG</t>
+  </si>
+  <si>
+    <t>0.41 VG</t>
+  </si>
+  <si>
+    <t>4.9% VG</t>
   </si>
 </sst>
 </file>
@@ -326,9 +492,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +505,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -371,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -416,7 +590,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -424,6 +598,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795D4DBD-F801-4398-801A-D5BAE7354365}">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
@@ -1532,4 +1710,953 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514C1ECC-E083-4C68-BB70-285068A79752}">
+  <dimension ref="A1:Z33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="2.77734375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="11.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="2.77734375" style="9" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="2.77734375" style="9" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="2.77734375" style="9" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="2.77734375" style="9" customWidth="1"/>
+    <col min="15" max="16" width="8.88671875" style="2"/>
+    <col min="17" max="17" width="2.77734375" style="9" customWidth="1"/>
+    <col min="18" max="19" width="8.88671875" style="2"/>
+    <col min="20" max="20" width="2.77734375" style="9" customWidth="1"/>
+    <col min="21" max="26" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+    </row>
+    <row r="2" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+    </row>
+    <row r="3" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="17"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+    </row>
+    <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="17"/>
+    </row>
+    <row r="6" spans="1:26" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="13"/>
+      <c r="C6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="N6" s="13"/>
+      <c r="O6" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="T6" s="13"/>
+      <c r="U6" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="4">
+        <v>14184100</v>
+      </c>
+      <c r="D7" s="4">
+        <v>23780883</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4">
+        <v>14183000</v>
+      </c>
+      <c r="G7" s="4">
+        <v>23780481</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="4">
+        <v>14182500</v>
+      </c>
+      <c r="J7" s="4">
+        <v>23780805</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="4">
+        <v>14181500</v>
+      </c>
+      <c r="M7" s="4">
+        <v>23780511</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="4">
+        <v>14180300</v>
+      </c>
+      <c r="P7" s="4">
+        <v>23780557</v>
+      </c>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="4">
+        <v>14179000</v>
+      </c>
+      <c r="S7" s="4">
+        <v>23780701</v>
+      </c>
+      <c r="T7" s="10"/>
+      <c r="U7" s="4">
+        <v>14178000</v>
+      </c>
+      <c r="V7" s="4">
+        <v>23780591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" s="11"/>
+      <c r="U8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="E15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="T15" s="9"/>
+    </row>
+    <row r="16" spans="1:26" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="S16" s="12"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="V16" s="12"/>
+    </row>
+    <row r="17" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="4">
+        <v>14182500</v>
+      </c>
+      <c r="J17" s="4">
+        <v>23780805</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="4">
+        <v>14181500</v>
+      </c>
+      <c r="M17" s="4">
+        <v>23780511</v>
+      </c>
+      <c r="N17" s="9"/>
+      <c r="O17" s="4">
+        <v>14180300</v>
+      </c>
+      <c r="P17" s="4">
+        <v>23780557</v>
+      </c>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="4">
+        <v>14179000</v>
+      </c>
+      <c r="S17" s="4">
+        <v>23780701</v>
+      </c>
+      <c r="T17" s="9"/>
+      <c r="U17" s="4">
+        <v>14178000</v>
+      </c>
+      <c r="V17" s="4">
+        <v>23780591</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18"/>
+      <c r="B18" s="19"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="9"/>
+      <c r="O18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T18" s="9"/>
+      <c r="U18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="9"/>
+      <c r="O19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T19" s="9"/>
+      <c r="U19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N20" s="9"/>
+      <c r="O20" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="T20" s="9"/>
+      <c r="U20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="9"/>
+      <c r="O21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="T21" s="9"/>
+      <c r="U21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="9"/>
+      <c r="O22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T22" s="9"/>
+      <c r="U22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="N23" s="9"/>
+      <c r="O23" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="T23" s="9"/>
+      <c r="U23" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="V23" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="E25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="T25" s="9"/>
+    </row>
+    <row r="26" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26" s="9"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26" s="9"/>
+      <c r="T26" s="9"/>
+    </row>
+    <row r="27" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="4">
+        <v>14184100</v>
+      </c>
+      <c r="D27" s="4">
+        <v>23780883</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+    </row>
+    <row r="28" spans="1:26" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="16">
+        <v>2</v>
+      </c>
+      <c r="D33" s="16">
+        <v>1.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DataCW3M/SkillAssessment/Hindcast skill - Calibration v Validation.xlsx
+++ b/DataCW3M/SkillAssessment/Hindcast skill - Calibration v Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FD41CD-0D0B-4768-A287-0856D66316ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E569EB-174F-4FC2-9BC4-ED5832C619B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{E7D8029B-26A1-4D64-8933-D1A21037D80D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="151">
   <si>
     <t>CW3M ver. 326 Hindcast Skill for Flows and Stream Temperatures in 2019 and 2020</t>
   </si>
@@ -340,9 +340,6 @@
     <t>0.40 VG</t>
   </si>
   <si>
-    <t>7/5/21 CW3M ver. 409 for 2019-20</t>
-  </si>
-  <si>
     <t>North Santiam Basin</t>
   </si>
   <si>
@@ -485,6 +482,12 @@
   </si>
   <si>
     <t>4.9% VG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CW3M Hindcast Skill for Flows and Stream Temperatures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/5/21 CW3M ver. 409 </t>
   </si>
 </sst>
 </file>
@@ -1714,10 +1717,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514C1ECC-E083-4C68-BB70-285068A79752}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1742,7 +1748,7 @@
   <sheetData>
     <row r="1" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="14"/>
@@ -1772,7 +1778,7 @@
     </row>
     <row r="2" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="14"/>
@@ -1829,7 +1835,7 @@
     </row>
     <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -1845,27 +1851,27 @@
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q6" s="13"/>
       <c r="R6" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1961,7 +1967,7 @@
       </c>
       <c r="Q8" s="11"/>
       <c r="R8" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>7</v>
@@ -1995,16 +2001,16 @@
         <v>8</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>44</v>
@@ -2016,7 +2022,7 @@
         <v>98</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>16</v>
@@ -2036,22 +2042,22 @@
         <v>99</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="I10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="L10" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>43</v>
@@ -2060,16 +2066,16 @@
         <v>27</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="V10" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
@@ -2092,31 +2098,31 @@
         <v>11</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>47</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>100</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
@@ -2142,10 +2148,10 @@
         <v>89</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>44</v>
@@ -2186,27 +2192,27 @@
       <c r="E16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="9"/>
       <c r="L16" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M16" s="12"/>
       <c r="N16" s="9"/>
       <c r="O16" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P16" s="12"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S16" s="12"/>
       <c r="T16" s="9"/>
       <c r="U16" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V16" s="12"/>
     </row>
@@ -2262,7 +2268,7 @@
       <c r="E18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>7</v>
@@ -2283,7 +2289,7 @@
       </c>
       <c r="Q18" s="9"/>
       <c r="R18" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>7</v>
@@ -2309,7 +2315,7 @@
         <v>52</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="2" t="s">
@@ -2334,10 +2340,10 @@
       </c>
       <c r="T19" s="9"/>
       <c r="U19" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2350,38 +2356,38 @@
       <c r="E20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="9"/>
       <c r="R20" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S20" s="5" t="s">
         <v>99</v>
       </c>
       <c r="T20" s="9"/>
       <c r="U20" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2394,10 +2400,10 @@
       <c r="E21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="2" t="s">
@@ -2408,24 +2414,24 @@
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="9"/>
       <c r="R21" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T21" s="9"/>
       <c r="U21" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2441,7 +2447,7 @@
         <v>85</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="2" t="s">
@@ -2485,7 +2491,7 @@
         <v>1.2</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="2">
@@ -2605,10 +2611,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
@@ -2616,10 +2622,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
@@ -2630,7 +2636,7 @@
         <v>58</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
@@ -2657,6 +2663,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup scale="76" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataCW3M/SkillAssessment/Hindcast skill - Calibration v Validation.xlsx
+++ b/DataCW3M/SkillAssessment/Hindcast skill - Calibration v Validation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E569EB-174F-4FC2-9BC4-ED5832C619B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2210BC-07F4-490D-A5A3-EE0A373CA1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{E7D8029B-26A1-4D64-8933-D1A21037D80D}"/>
+    <workbookView xWindow="31875" yWindow="-2910" windowWidth="16830" windowHeight="6945" xr2:uid="{E7D8029B-26A1-4D64-8933-D1A21037D80D}"/>
   </bookViews>
   <sheets>
     <sheet name="McKenzie" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="193">
   <si>
     <t>CW3M ver. 326 Hindcast Skill for Flows and Stream Temperatures in 2019 and 2020</t>
   </si>
@@ -67,18 +67,12 @@
     <t>0.87 VG</t>
   </si>
   <si>
-    <t>0.43 VG</t>
-  </si>
-  <si>
     <t>0.36 VG</t>
   </si>
   <si>
     <t>0.88 VG</t>
   </si>
   <si>
-    <t>ver. 309 2010-18</t>
-  </si>
-  <si>
     <t>Mohawk</t>
   </si>
   <si>
@@ -88,18 +82,6 @@
     <t>0.85 VG</t>
   </si>
   <si>
-    <t>-5.5% G</t>
-  </si>
-  <si>
-    <t>+14.8% S</t>
-  </si>
-  <si>
-    <t>+1.4% VG</t>
-  </si>
-  <si>
-    <t>+0.8% VG</t>
-  </si>
-  <si>
     <t>0.37 VG</t>
   </si>
   <si>
@@ -121,12 +103,6 @@
     <t>-0.2% VG</t>
   </si>
   <si>
-    <t>-0.9% VG</t>
-  </si>
-  <si>
-    <t>0.48 VG</t>
-  </si>
-  <si>
     <t>0.82 G</t>
   </si>
   <si>
@@ -142,15 +118,6 @@
     <t>0.61 S</t>
   </si>
   <si>
-    <t>0.60 S</t>
-  </si>
-  <si>
-    <t>-6.5% G</t>
-  </si>
-  <si>
-    <t>-14.7% S</t>
-  </si>
-  <si>
     <t>0.62 S</t>
   </si>
   <si>
@@ -175,9 +142,6 @@
     <t>0.89 VG</t>
   </si>
   <si>
-    <t>-6.1% G</t>
-  </si>
-  <si>
     <t>0.32 VG</t>
   </si>
   <si>
@@ -187,12 +151,6 @@
     <t>S Fork above Cougar</t>
   </si>
   <si>
-    <t>+0.04% VG</t>
-  </si>
-  <si>
-    <t>-4.6% VG</t>
-  </si>
-  <si>
     <t>0.93 VG</t>
   </si>
   <si>
@@ -205,12 +163,6 @@
     <t>0.81 VG</t>
   </si>
   <si>
-    <t>+1.9% VG</t>
-  </si>
-  <si>
-    <t>-9.7% G</t>
-  </si>
-  <si>
     <t>0.50 VG</t>
   </si>
   <si>
@@ -265,18 +217,9 @@
     <t>0.80 G</t>
   </si>
   <si>
-    <t>-10.0% S</t>
-  </si>
-  <si>
-    <t>-8.1% G</t>
-  </si>
-  <si>
     <t>0.42 VG</t>
   </si>
   <si>
-    <t>0.29 VG</t>
-  </si>
-  <si>
     <t>0.92 VG</t>
   </si>
   <si>
@@ -307,9 +250,6 @@
     <t>0.95 VG</t>
   </si>
   <si>
-    <t>3/25/21 CW3M ver. 326 for 2019-20</t>
-  </si>
-  <si>
     <t>+8.8% G</t>
   </si>
   <si>
@@ -487,7 +427,193 @@
     <t xml:space="preserve">CW3M Hindcast Skill for Flows and Stream Temperatures </t>
   </si>
   <si>
-    <t xml:space="preserve">7/5/21 CW3M ver. 409 </t>
+    <t xml:space="preserve">7/5/21 CW3M ver. 409 for 2019-20 </t>
+  </si>
+  <si>
+    <t>ver. 741 2010-18</t>
+  </si>
+  <si>
+    <t>+0.1% VG</t>
+  </si>
+  <si>
+    <t>0.83 G</t>
+  </si>
+  <si>
+    <t>+5.9% G</t>
+  </si>
+  <si>
+    <t>+3.3% VG</t>
+  </si>
+  <si>
+    <t>-7.2% G</t>
+  </si>
+  <si>
+    <t>+0.7% VG</t>
+  </si>
+  <si>
+    <t>-1.6% VG</t>
+  </si>
+  <si>
+    <t>0.76 G</t>
+  </si>
+  <si>
+    <t>-1.1% VG</t>
+  </si>
+  <si>
+    <t>0.44 VG</t>
+  </si>
+  <si>
+    <t>-4.4% VG</t>
+  </si>
+  <si>
+    <t>+2.0% VG</t>
+  </si>
+  <si>
+    <t>+10.6% S</t>
+  </si>
+  <si>
+    <t>0.51 G</t>
+  </si>
+  <si>
+    <t>0.59 S</t>
+  </si>
+  <si>
+    <t>+18.5% NS</t>
+  </si>
+  <si>
+    <t>0.59 G</t>
+  </si>
+  <si>
+    <t>Older temperature hindcasts</t>
+  </si>
+  <si>
+    <t>ver. 326 2019-20</t>
+  </si>
+  <si>
+    <t>ver. 326  2019-20</t>
+  </si>
+  <si>
+    <t>0.52 S</t>
+  </si>
+  <si>
+    <t>+3.5% VG</t>
+  </si>
+  <si>
+    <t>0.57 NS</t>
+  </si>
+  <si>
+    <t>-16.8% NS</t>
+  </si>
+  <si>
+    <t>spring, deg C</t>
+  </si>
+  <si>
+    <t>runoff</t>
+  </si>
+  <si>
+    <t>Foley Springs</t>
+  </si>
+  <si>
+    <t>Blw Trail Br</t>
+  </si>
+  <si>
+    <t>Tidbits</t>
+  </si>
+  <si>
+    <t>abv CGR</t>
+  </si>
+  <si>
+    <t>blw CGR</t>
+  </si>
+  <si>
+    <t>-2.9% VG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2/14/22 ver. 741 for 2010-20</t>
+  </si>
+  <si>
+    <t>0.56 S</t>
+  </si>
+  <si>
+    <t>+18.8% NS</t>
+  </si>
+  <si>
+    <t>ver. 741 2019-20</t>
+  </si>
+  <si>
+    <t>+15.6% NS</t>
+  </si>
+  <si>
+    <t>ver 741 2019-20</t>
+  </si>
+  <si>
+    <t>-16.9% NS</t>
+  </si>
+  <si>
+    <t>-8.39% G</t>
+  </si>
+  <si>
+    <t>-7.5% G</t>
+  </si>
+  <si>
+    <t>0.33 VG</t>
+  </si>
+  <si>
+    <t>0.70 G</t>
+  </si>
+  <si>
+    <t>-15.7% NS</t>
+  </si>
+  <si>
+    <t>0.84 G</t>
+  </si>
+  <si>
+    <t>-23.0% NS</t>
+  </si>
+  <si>
+    <t>0.85 G</t>
+  </si>
+  <si>
+    <t>0.64 S</t>
+  </si>
+  <si>
+    <t>+10.9% S</t>
+  </si>
+  <si>
+    <t>0.58 G</t>
+  </si>
+  <si>
+    <t>0.47 S</t>
+  </si>
+  <si>
+    <t>-2.7% VG</t>
+  </si>
+  <si>
+    <t>0.73 NS</t>
+  </si>
+  <si>
+    <t>0.48 NS</t>
+  </si>
+  <si>
+    <t>-7.1% G</t>
+  </si>
+  <si>
+    <t>-8.9% G</t>
+  </si>
+  <si>
+    <t>0.27 VG</t>
+  </si>
+  <si>
+    <t>0.55 S</t>
+  </si>
+  <si>
+    <t>+3.0% VG</t>
+  </si>
+  <si>
+    <t>0.72 G</t>
+  </si>
+  <si>
+    <t>-17.2% NS</t>
   </si>
 </sst>
 </file>
@@ -522,7 +648,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,6 +658,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -604,6 +736,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,10 +1069,1162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795D4DBD-F801-4398-801A-D5BAE7354365}">
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:Y54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="2.77734375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="10.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="2.77734375" style="9" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="2.77734375" style="9" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="2.77734375" style="9" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="2.77734375" style="9" customWidth="1"/>
+    <col min="15" max="16" width="8.88671875" style="2"/>
+    <col min="17" max="17" width="2.77734375" style="9" customWidth="1"/>
+    <col min="18" max="25" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+    </row>
+    <row r="2" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="17"/>
+    </row>
+    <row r="5" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="C5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5"/>
+      <c r="U5"/>
+    </row>
+    <row r="6" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="4">
+        <v>14164900</v>
+      </c>
+      <c r="D6" s="4">
+        <v>23772751</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="4">
+        <v>14165000</v>
+      </c>
+      <c r="G6" s="4">
+        <v>23773513</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="4">
+        <v>14162500</v>
+      </c>
+      <c r="J6" s="4">
+        <v>23772909</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="4">
+        <v>14162200</v>
+      </c>
+      <c r="M6" s="4">
+        <v>23773405</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="4">
+        <v>14161500</v>
+      </c>
+      <c r="P6" s="4">
+        <v>23773405</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="4">
+        <v>14159200</v>
+      </c>
+      <c r="S6" s="4">
+        <v>23773037</v>
+      </c>
+      <c r="T6"/>
+      <c r="U6"/>
+    </row>
+    <row r="7" spans="1:25" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8"/>
+      <c r="U8"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="T9"/>
+      <c r="U9"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="T10"/>
+      <c r="U10"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T11"/>
+      <c r="U11"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="C13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="F13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4">
+        <v>14158500</v>
+      </c>
+      <c r="D14" s="4">
+        <v>23773373</v>
+      </c>
+      <c r="F14" s="2">
+        <v>14158790</v>
+      </c>
+      <c r="G14" s="2">
+        <v>23773393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="C15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="17"/>
+      <c r="C22" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="14"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="15"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="2">
+        <v>14164700</v>
+      </c>
+      <c r="D23" s="2">
+        <v>23774369</v>
+      </c>
+      <c r="F23" s="2">
+        <v>14163900</v>
+      </c>
+      <c r="G23" s="2">
+        <v>23772801</v>
+      </c>
+      <c r="I23" s="2">
+        <v>14163150</v>
+      </c>
+      <c r="J23" s="2">
+        <v>23772857</v>
+      </c>
+      <c r="L23" s="2">
+        <v>14159500</v>
+      </c>
+      <c r="M23" s="2">
+        <v>23773009</v>
+      </c>
+      <c r="O23" s="2">
+        <v>14158850</v>
+      </c>
+      <c r="P23" s="2">
+        <v>23773359</v>
+      </c>
+      <c r="R23"/>
+      <c r="S23"/>
+    </row>
+    <row r="24" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N24" s="10"/>
+      <c r="O24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+      <c r="C25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N25" s="10"/>
+      <c r="O25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N26" s="10"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="17"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="F30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="I30" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="14"/>
+      <c r="L30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M30" s="12"/>
+      <c r="O30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R30" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="4">
+        <v>14164900</v>
+      </c>
+      <c r="D31" s="4">
+        <v>23772751</v>
+      </c>
+      <c r="F31" s="4">
+        <v>14162500</v>
+      </c>
+      <c r="G31" s="4">
+        <v>23772909</v>
+      </c>
+      <c r="I31" s="2">
+        <v>14159500</v>
+      </c>
+      <c r="J31" s="2">
+        <v>23773009</v>
+      </c>
+      <c r="L31" s="4">
+        <v>14159200</v>
+      </c>
+      <c r="M31" s="4">
+        <v>23773037</v>
+      </c>
+      <c r="O31" s="2">
+        <v>14162200</v>
+      </c>
+      <c r="P31" s="2">
+        <v>23773405</v>
+      </c>
+      <c r="R31" s="2">
+        <v>14161100</v>
+      </c>
+      <c r="S31" s="2">
+        <v>23773429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C32" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="O32" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="R32" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="D37" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="J37" s="16">
+        <v>2</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O37" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="P37" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="R37" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="S37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D39" s="16"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="F40" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="O40" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F41" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F42" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F43" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="O45"/>
+      <c r="P45"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="10"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C47" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="F47" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C48" s="4">
+        <v>14164900</v>
+      </c>
+      <c r="D48" s="4">
+        <v>23772751</v>
+      </c>
+      <c r="F48" s="4">
+        <v>14162500</v>
+      </c>
+      <c r="G48" s="4">
+        <v>23772909</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C49" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C50" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C51" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C52" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C53" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C54" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="D54" s="26">
+        <v>1</v>
+      </c>
+      <c r="F54" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514C1ECC-E083-4C68-BB70-285068A79752}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -947,7 +2249,7 @@
   <sheetData>
     <row r="1" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="14"/>
@@ -977,808 +2279,7 @@
     </row>
     <row r="2" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="17"/>
-    </row>
-    <row r="5" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="T5" s="13"/>
-      <c r="U5" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="4">
-        <v>14164900</v>
-      </c>
-      <c r="D6" s="4">
-        <v>23772751</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="4">
-        <v>14165000</v>
-      </c>
-      <c r="G6" s="4">
-        <v>23773513</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="4">
-        <v>14162500</v>
-      </c>
-      <c r="J6" s="4">
-        <v>23772909</v>
-      </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="4">
-        <v>14162200</v>
-      </c>
-      <c r="M6" s="4">
-        <v>23773405</v>
-      </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="4">
-        <v>14161500</v>
-      </c>
-      <c r="P6" s="4">
-        <v>23773405</v>
-      </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="4">
-        <v>14159200</v>
-      </c>
-      <c r="S6" s="4">
-        <v>23773037</v>
-      </c>
-      <c r="T6" s="10"/>
-      <c r="U6" s="4">
-        <v>14158500</v>
-      </c>
-      <c r="V6" s="4">
-        <v>23773373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="V9" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
-      <c r="C14" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="S14" s="14"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="2">
-        <v>14164700</v>
-      </c>
-      <c r="D15" s="2">
-        <v>23774369</v>
-      </c>
-      <c r="F15" s="2">
-        <v>14163900</v>
-      </c>
-      <c r="G15" s="2">
-        <v>23772801</v>
-      </c>
-      <c r="I15" s="2">
-        <v>14163150</v>
-      </c>
-      <c r="J15" s="2">
-        <v>23772857</v>
-      </c>
-      <c r="L15" s="2">
-        <v>14159500</v>
-      </c>
-      <c r="M15" s="2">
-        <v>23773009</v>
-      </c>
-      <c r="O15" s="2">
-        <v>14158850</v>
-      </c>
-      <c r="P15" s="2">
-        <v>23773359</v>
-      </c>
-      <c r="R15" s="2">
-        <v>14158790</v>
-      </c>
-      <c r="S15" s="2">
-        <v>23773393</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q16" s="10"/>
-      <c r="T16" s="10"/>
-    </row>
-    <row r="17" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q17" s="10"/>
-      <c r="T17" s="10"/>
-    </row>
-    <row r="18" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="T18" s="10"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="17"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="I22" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="14"/>
-      <c r="R22" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="S22" s="12"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="4">
-        <v>14164900</v>
-      </c>
-      <c r="D23" s="4">
-        <v>23772751</v>
-      </c>
-      <c r="I23" s="4">
-        <v>14162500</v>
-      </c>
-      <c r="J23" s="4">
-        <v>23772909</v>
-      </c>
-      <c r="R23" s="4">
-        <v>14159200</v>
-      </c>
-      <c r="S23" s="4">
-        <v>23773037</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="R24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S26" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="D29" s="16">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R29" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="S29" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="L32" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M32" s="14"/>
-      <c r="O32" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="L33" s="2">
-        <v>14159500</v>
-      </c>
-      <c r="M33" s="2">
-        <v>23773009</v>
-      </c>
-      <c r="O33" s="2">
-        <v>14161100</v>
-      </c>
-      <c r="P33" s="2">
-        <v>23773429</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514C1ECC-E083-4C68-BB70-285068A79752}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:Z33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="2.77734375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="11.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="2.77734375" style="9" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="2"/>
-    <col min="8" max="8" width="2.77734375" style="9" customWidth="1"/>
-    <col min="9" max="10" width="8.88671875" style="2"/>
-    <col min="11" max="11" width="2.77734375" style="9" customWidth="1"/>
-    <col min="12" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="2.77734375" style="9" customWidth="1"/>
-    <col min="15" max="16" width="8.88671875" style="2"/>
-    <col min="17" max="17" width="2.77734375" style="9" customWidth="1"/>
-    <col min="18" max="19" width="8.88671875" style="2"/>
-    <col min="20" max="20" width="2.77734375" style="9" customWidth="1"/>
-    <col min="21" max="26" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-    </row>
-    <row r="2" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="14"/>
@@ -1835,7 +2336,7 @@
     </row>
     <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -1847,36 +2348,36 @@
     <row r="6" spans="1:26" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
       <c r="C6" s="12" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="12" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="21" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="12" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="21" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="Q6" s="13"/>
       <c r="R6" s="21" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="21" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="4">
@@ -1932,49 +2433,49 @@
       <c r="A8" s="6"/>
       <c r="B8" s="18"/>
       <c r="C8" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="N8" s="11"/>
       <c r="O8" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="Q8" s="11"/>
       <c r="R8" s="3" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="T8" s="11"/>
       <c r="U8" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>7</v>
@@ -1989,43 +2490,43 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>9</v>
@@ -2036,46 +2537,46 @@
         <v>2</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="S10" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" s="5" t="s">
+      <c r="U10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V10" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
@@ -2083,46 +2584,46 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
@@ -2130,34 +2631,34 @@
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>9</v>
@@ -2169,12 +2670,12 @@
         <v>9</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B15" s="17"/>
       <c r="E15" s="9"/>
@@ -2192,33 +2693,33 @@
       <c r="E16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="21" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="9"/>
       <c r="L16" s="12" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="M16" s="12"/>
       <c r="N16" s="9"/>
       <c r="O16" s="21" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="P16" s="12"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="21" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="S16" s="12"/>
       <c r="T16" s="9"/>
       <c r="U16" s="21" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="V16" s="12"/>
     </row>
     <row r="17" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17"/>
@@ -2268,35 +2769,35 @@
       <c r="E18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="3" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="N18" s="9"/>
       <c r="O18" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="Q18" s="9"/>
       <c r="R18" s="3" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="T18" s="9"/>
       <c r="U18" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>7</v>
@@ -2312,38 +2813,38 @@
       <c r="E19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="9"/>
       <c r="R19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="T19" s="9"/>
       <c r="U19" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2356,38 +2857,38 @@
       <c r="E20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="5" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="2" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="5" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="9"/>
       <c r="R20" s="5" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="T20" s="9"/>
       <c r="U20" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2400,38 +2901,38 @@
       <c r="E21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="Q21" s="9"/>
       <c r="R21" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="T21" s="9"/>
       <c r="U21" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2444,43 +2945,43 @@
       <c r="E22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="N22" s="9"/>
       <c r="O22" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="P22" s="2">
         <v>0.95</v>
       </c>
       <c r="Q22" s="9"/>
       <c r="R22" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="T22" s="9"/>
       <c r="U22" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23"/>
@@ -2491,7 +2992,7 @@
         <v>1.2</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="2">
@@ -2524,7 +3025,7 @@
     </row>
     <row r="25" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B25" s="19"/>
       <c r="E25" s="9"/>
@@ -2538,7 +3039,7 @@
       <c r="A26"/>
       <c r="B26" s="19"/>
       <c r="C26" s="12" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="9"/>
@@ -2554,7 +3055,7 @@
     </row>
     <row r="27" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="4">
@@ -2584,7 +3085,7 @@
       <c r="A28" s="4"/>
       <c r="B28" s="10"/>
       <c r="C28" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>7</v>
@@ -2611,10 +3112,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
@@ -2622,10 +3123,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
@@ -2633,10 +3134,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
@@ -2644,15 +3145,15 @@
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C33" s="16">
         <v>2</v>
